--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE39EC4-8DC6-4BCE-97DB-45D86DF240F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341806C-CCC3-42B9-8072-3D452D3B1067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1788" yWindow="8208" windowWidth="24684" windowHeight="16032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="433">
   <si>
     <t>scheme.repl</t>
   </si>
@@ -1352,6 +1352,10 @@
   </si>
   <si>
     <t>遅延評価</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>数値演算</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2304,12 +2308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2333,7 +2336,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2346,12 +2349,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2359,12 +2362,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2404,7 +2407,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2436,7 +2439,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -2460,17 +2463,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2510,12 +2513,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>110</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>231</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>126</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>232</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -2555,12 +2558,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -2571,7 +2574,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -2648,7 +2651,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -2670,7 +2673,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>35</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>36</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>39</v>
       </c>
@@ -2736,7 +2739,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>40</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>41</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>43</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>236</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>44</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>237</v>
       </c>
@@ -2835,7 +2838,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>239</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>240</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>241</v>
       </c>
@@ -2868,7 +2871,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>417</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>242</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>243</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>244</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>51</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>58</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>59</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>62</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>246</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>63</v>
       </c>
@@ -2989,15 +2992,18 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>64</v>
       </c>
+      <c r="C72" t="s">
+        <v>355</v>
+      </c>
       <c r="D72" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>78</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>79</v>
       </c>
@@ -3035,13 +3041,13 @@
         <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>81</v>
       </c>
@@ -3063,7 +3069,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>95</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>97</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>98</v>
       </c>
@@ -3107,7 +3113,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>99</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>100</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>104</v>
       </c>
@@ -3184,7 +3190,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>248</v>
       </c>
@@ -3195,7 +3201,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>105</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>108</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -3305,7 +3311,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>114</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>115</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="105" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>117</v>
       </c>
@@ -3360,7 +3366,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>118</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="107" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>119</v>
       </c>
@@ -3382,7 +3388,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>253</v>
       </c>
@@ -3426,7 +3432,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>121</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>355</v>
       </c>
       <c r="D112" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.45">
@@ -3442,10 +3448,10 @@
         <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.45">
@@ -3453,10 +3459,10 @@
         <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.45">
@@ -3464,10 +3470,10 @@
         <v>259</v>
       </c>
       <c r="C115" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.45">
@@ -3475,10 +3481,10 @@
         <v>122</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D116" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.45">
@@ -3522,7 +3528,7 @@
         <v>354</v>
       </c>
       <c r="D120" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.45">
@@ -3533,7 +3539,7 @@
         <v>354</v>
       </c>
       <c r="D121" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.45">
@@ -3544,7 +3550,7 @@
         <v>354</v>
       </c>
       <c r="D122" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.45">
@@ -3555,7 +3561,7 @@
         <v>354</v>
       </c>
       <c r="D123" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.45">
@@ -3569,7 +3575,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>125</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>128</v>
       </c>
@@ -3635,7 +3641,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>269</v>
       </c>
@@ -3662,10 +3668,10 @@
         <v>271</v>
       </c>
       <c r="C133" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D133" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.45">
@@ -3673,10 +3679,10 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D134" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.45">
@@ -3712,7 +3718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>133</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>134</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>136</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>137</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>138</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>274</v>
       </c>
@@ -3811,7 +3817,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>140</v>
       </c>
@@ -3844,7 +3850,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>142</v>
       </c>
@@ -3932,7 +3938,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>278</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>152</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>154</v>
       </c>
@@ -4003,10 +4009,10 @@
         <v>155</v>
       </c>
       <c r="C164" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D164" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.45">
@@ -4020,7 +4026,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>157</v>
       </c>
@@ -4047,13 +4053,13 @@
         <v>159</v>
       </c>
       <c r="C168" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D168" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>160</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>161</v>
       </c>
@@ -4072,10 +4078,10 @@
         <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>162</v>
       </c>
@@ -4086,7 +4092,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="172" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>163</v>
       </c>
@@ -4097,7 +4103,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>164</v>
       </c>
@@ -4119,7 +4125,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>166</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>168</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>355</v>
       </c>
       <c r="D177" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.45">
@@ -4196,7 +4202,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="182" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
         <v>171</v>
       </c>
@@ -4229,7 +4235,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="185" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
         <v>173</v>
       </c>
@@ -4273,7 +4279,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>288</v>
       </c>
@@ -4284,7 +4290,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
         <v>175</v>
       </c>
@@ -4292,10 +4298,10 @@
         <v>355</v>
       </c>
       <c r="D190" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>176</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
         <v>177</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>178</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
         <v>179</v>
       </c>
@@ -4336,7 +4342,7 @@
         <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.45">
@@ -4369,7 +4375,7 @@
         <v>354</v>
       </c>
       <c r="D197" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.45">
@@ -4380,7 +4386,7 @@
         <v>354</v>
       </c>
       <c r="D198" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.45">
@@ -4465,10 +4471,10 @@
         <v>184</v>
       </c>
       <c r="C206" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D206" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.45">
@@ -4476,13 +4482,13 @@
         <v>185</v>
       </c>
       <c r="C207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D207" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
         <v>186</v>
       </c>
@@ -4498,13 +4504,13 @@
         <v>187</v>
       </c>
       <c r="C209" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D209" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
         <v>188</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="217" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
         <v>194</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="220" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B220" t="s">
         <v>195</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="225" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
         <v>203</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="227" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
         <v>204</v>
       </c>
@@ -4768,7 +4774,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="234" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
         <v>211</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
         <v>214</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B240" t="s">
         <v>215</v>
       </c>
@@ -4861,10 +4867,10 @@
         <v>216</v>
       </c>
       <c r="C242" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D242" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.45">
@@ -4872,10 +4878,10 @@
         <v>306</v>
       </c>
       <c r="C243" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D243" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.45">
@@ -4883,10 +4889,10 @@
         <v>307</v>
       </c>
       <c r="C244" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D244" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.45">
@@ -4911,7 +4917,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B247" t="s">
         <v>310</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B251" t="s">
         <v>217</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B264" t="s">
         <v>224</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B265" t="s">
         <v>320</v>
       </c>
@@ -5175,7 +5181,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B271" t="s">
         <v>229</v>
       </c>
@@ -5183,15 +5189,15 @@
         <v>355</v>
       </c>
       <c r="D271" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B273" t="s">
         <v>112</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B274" t="s">
         <v>227</v>
       </c>
@@ -5235,12 +5241,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B278" t="s">
         <v>148</v>
       </c>
@@ -5248,12 +5254,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B280" t="s">
         <v>45</v>
       </c>
@@ -5264,7 +5270,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B281" t="s">
         <v>46</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B282" t="s">
         <v>47</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B283" t="s">
         <v>48</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B284" t="s">
         <v>49</v>
       </c>
@@ -5308,7 +5314,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B285" t="s">
         <v>50</v>
       </c>
@@ -5319,7 +5325,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B286" t="s">
         <v>52</v>
       </c>
@@ -5330,7 +5336,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B287" t="s">
         <v>53</v>
       </c>
@@ -5341,7 +5347,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B288" t="s">
         <v>54</v>
       </c>
@@ -5352,7 +5358,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B289" t="s">
         <v>55</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B290" t="s">
         <v>56</v>
       </c>
@@ -5374,7 +5380,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B291" t="s">
         <v>57</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B292" t="s">
         <v>65</v>
       </c>
@@ -5396,7 +5402,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B293" t="s">
         <v>66</v>
       </c>
@@ -5407,7 +5413,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B294" t="s">
         <v>67</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B295" t="s">
         <v>68</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B296" t="s">
         <v>69</v>
       </c>
@@ -5440,7 +5446,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B297" t="s">
         <v>70</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B298" t="s">
         <v>72</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B299" t="s">
         <v>73</v>
       </c>
@@ -5473,7 +5479,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B300" t="s">
         <v>74</v>
       </c>
@@ -5484,7 +5490,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B301" t="s">
         <v>75</v>
       </c>
@@ -5495,7 +5501,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B302" t="s">
         <v>76</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B303" t="s">
         <v>77</v>
       </c>
@@ -5517,12 +5523,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B305" t="s">
         <v>60</v>
       </c>
@@ -5530,7 +5536,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B306" t="s">
         <v>61</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B307" t="s">
         <v>331</v>
       </c>
@@ -5546,7 +5552,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B308" t="s">
         <v>332</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B309" t="s">
         <v>333</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B310" t="s">
         <v>334</v>
       </c>
@@ -5570,7 +5576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B311" t="s">
         <v>169</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B312" t="s">
         <v>170</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B313" t="s">
         <v>225</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B314" t="s">
         <v>226</v>
       </c>
@@ -5602,12 +5608,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B316" t="s">
         <v>82</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
         <v>83</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B318" t="s">
         <v>84</v>
       </c>
@@ -5631,7 +5637,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B319" t="s">
         <v>85</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B320" t="s">
         <v>86</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="321" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
         <v>87</v>
       </c>
@@ -5655,7 +5661,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
         <v>88</v>
       </c>
@@ -5663,7 +5669,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
         <v>336</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="324" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
         <v>89</v>
       </c>
@@ -5679,7 +5685,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
         <v>90</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="326" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
         <v>92</v>
       </c>
@@ -5695,7 +5701,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="327" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
         <v>93</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="328" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
         <v>94</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="329" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
         <v>337</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
         <v>196</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="331" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
         <v>197</v>
       </c>
@@ -5735,7 +5741,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="332" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
         <v>198</v>
       </c>
@@ -5743,7 +5749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
         <v>199</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B334" t="s">
         <v>200</v>
       </c>
@@ -5759,7 +5765,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="335" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
         <v>338</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="336" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
         <v>339</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B337" t="s">
         <v>340</v>
       </c>
@@ -5783,12 +5789,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B339" t="s">
         <v>342</v>
       </c>
@@ -5796,7 +5802,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
         <v>120</v>
       </c>
@@ -5804,17 +5810,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B343" t="s">
         <v>345</v>
       </c>
@@ -5822,12 +5828,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B345" t="s">
         <v>347</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B346" t="s">
         <v>348</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B347" t="s">
         <v>349</v>
       </c>
@@ -5851,12 +5857,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B349" t="s">
         <v>37</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B350" t="s">
         <v>129</v>
       </c>
@@ -5872,7 +5878,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
         <v>149</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
         <v>150</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
         <v>151</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B354" t="s">
         <v>183</v>
       </c>
@@ -5904,19 +5910,13 @@
         <v>419</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="×"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341806C-CCC3-42B9-8072-3D452D3B1067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7B4ED-2ED8-475A-8ECB-FDB0DD337026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1788" yWindow="8208" windowWidth="24684" windowHeight="16032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="435">
   <si>
     <t>scheme.repl</t>
   </si>
@@ -1356,6 +1356,13 @@
   </si>
   <si>
     <t>数値演算</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>文字列</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2308,11 +2315,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C191" sqref="C191"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2336,12 +2344,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2349,12 +2357,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2362,12 +2370,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2391,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2431,7 +2439,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2447,7 +2455,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2463,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -2463,17 +2471,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2489,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2489,7 +2497,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2505,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -2505,7 +2513,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2513,12 +2521,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>110</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>231</v>
       </c>
@@ -2534,7 +2542,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>126</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>232</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -2558,12 +2566,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -2574,7 +2582,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -2585,7 +2593,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -2607,7 +2615,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -2618,7 +2626,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2629,7 +2637,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2640,7 +2648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -2651,7 +2659,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -2673,7 +2681,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>358</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>35</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>36</v>
       </c>
@@ -2717,7 +2725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -2728,7 +2736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>39</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>40</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>41</v>
       </c>
@@ -2761,7 +2769,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -2772,7 +2780,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>43</v>
       </c>
@@ -2783,7 +2791,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>235</v>
       </c>
@@ -2794,7 +2802,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>236</v>
       </c>
@@ -2805,7 +2813,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>44</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>237</v>
       </c>
@@ -2827,7 +2835,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>238</v>
       </c>
@@ -2838,7 +2846,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>239</v>
       </c>
@@ -2849,7 +2857,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>240</v>
       </c>
@@ -2860,7 +2868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>241</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>417</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>242</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>243</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>244</v>
       </c>
@@ -2915,7 +2923,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>51</v>
       </c>
@@ -2926,7 +2934,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>58</v>
       </c>
@@ -2937,7 +2945,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>59</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>245</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>62</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>246</v>
       </c>
@@ -2981,7 +2989,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>63</v>
       </c>
@@ -2992,7 +3000,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>64</v>
       </c>
@@ -3003,7 +3011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3014,7 +3022,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>78</v>
       </c>
@@ -3025,7 +3033,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>79</v>
       </c>
@@ -3036,7 +3044,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>80</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>81</v>
       </c>
@@ -3058,7 +3066,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>91</v>
       </c>
@@ -3069,7 +3077,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>95</v>
       </c>
@@ -3080,7 +3088,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -3091,7 +3099,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>97</v>
       </c>
@@ -3102,7 +3110,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>98</v>
       </c>
@@ -3113,7 +3121,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>99</v>
       </c>
@@ -3124,7 +3132,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>100</v>
       </c>
@@ -3135,7 +3143,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -3146,7 +3154,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>102</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>247</v>
       </c>
@@ -3168,7 +3176,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>103</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>104</v>
       </c>
@@ -3190,7 +3198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>248</v>
       </c>
@@ -3201,7 +3209,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>105</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>249</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>106</v>
       </c>
@@ -3234,7 +3242,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>107</v>
       </c>
@@ -3245,7 +3253,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>108</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>250</v>
       </c>
@@ -3267,7 +3275,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>251</v>
       </c>
@@ -3289,7 +3297,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>111</v>
       </c>
@@ -3300,7 +3308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>113</v>
       </c>
@@ -3311,7 +3319,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>114</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>115</v>
       </c>
@@ -3333,7 +3341,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>252</v>
       </c>
@@ -3344,7 +3352,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>116</v>
       </c>
@@ -3355,7 +3363,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>117</v>
       </c>
@@ -3366,7 +3374,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>118</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>119</v>
       </c>
@@ -3388,7 +3396,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>253</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>254</v>
       </c>
@@ -3410,7 +3418,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>255</v>
       </c>
@@ -3421,7 +3429,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>256</v>
       </c>
@@ -3432,7 +3440,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>121</v>
       </c>
@@ -3443,7 +3451,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>257</v>
       </c>
@@ -3454,7 +3462,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>258</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>259</v>
       </c>
@@ -3476,7 +3484,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>122</v>
       </c>
@@ -3487,7 +3495,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>123</v>
       </c>
@@ -3498,7 +3506,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>260</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>261</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>124</v>
       </c>
@@ -3531,7 +3539,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>262</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>263</v>
       </c>
@@ -3553,7 +3561,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>264</v>
       </c>
@@ -3564,7 +3572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>265</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>125</v>
       </c>
@@ -3586,7 +3594,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>127</v>
       </c>
@@ -3597,7 +3605,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>266</v>
       </c>
@@ -3608,7 +3616,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>267</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>268</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>128</v>
       </c>
@@ -3641,7 +3649,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>269</v>
       </c>
@@ -3652,7 +3660,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>270</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>271</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>130</v>
       </c>
@@ -3685,7 +3693,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>272</v>
       </c>
@@ -3696,7 +3704,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>131</v>
       </c>
@@ -3707,7 +3715,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>132</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>133</v>
       </c>
@@ -3729,7 +3737,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>134</v>
       </c>
@@ -3740,7 +3748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>135</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>136</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>137</v>
       </c>
@@ -3773,7 +3781,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>138</v>
       </c>
@@ -3784,7 +3792,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>273</v>
       </c>
@@ -3795,7 +3803,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>139</v>
       </c>
@@ -3806,7 +3814,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>274</v>
       </c>
@@ -3817,7 +3825,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>140</v>
       </c>
@@ -3828,7 +3836,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>275</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>141</v>
       </c>
@@ -3850,7 +3858,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>142</v>
       </c>
@@ -3866,13 +3874,13 @@
         <v>143</v>
       </c>
       <c r="C151" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D151" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>144</v>
       </c>
@@ -3883,7 +3891,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>276</v>
       </c>
@@ -3894,7 +3902,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>145</v>
       </c>
@@ -3905,7 +3913,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>277</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>146</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>147</v>
       </c>
@@ -3938,7 +3946,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>278</v>
       </c>
@@ -3949,7 +3957,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>279</v>
       </c>
@@ -3960,7 +3968,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>280</v>
       </c>
@@ -3979,10 +3987,10 @@
         <v>355</v>
       </c>
       <c r="D161" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>153</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>154</v>
       </c>
@@ -4004,7 +4012,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>155</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B165" t="s">
         <v>156</v>
       </c>
@@ -4026,7 +4034,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>157</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>158</v>
       </c>
@@ -4048,7 +4056,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>159</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>160</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>161</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>162</v>
       </c>
@@ -4092,7 +4100,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>163</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>164</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>165</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>166</v>
       </c>
@@ -4136,7 +4144,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>167</v>
       </c>
@@ -4147,7 +4155,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>168</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>281</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>282</v>
       </c>
@@ -4180,7 +4188,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>283</v>
       </c>
@@ -4191,7 +4199,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>284</v>
       </c>
@@ -4202,7 +4210,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
         <v>171</v>
       </c>
@@ -4213,7 +4221,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>285</v>
       </c>
@@ -4224,7 +4232,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>172</v>
       </c>
@@ -4235,7 +4243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
         <v>173</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B186" t="s">
         <v>286</v>
       </c>
@@ -4257,7 +4265,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>174</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>287</v>
       </c>
@@ -4279,7 +4287,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>288</v>
       </c>
@@ -4290,7 +4298,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
         <v>175</v>
       </c>
@@ -4301,7 +4309,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>176</v>
       </c>
@@ -4312,7 +4320,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
         <v>177</v>
       </c>
@@ -4323,7 +4331,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>178</v>
       </c>
@@ -4334,7 +4342,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
         <v>179</v>
       </c>
@@ -4345,7 +4353,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
         <v>289</v>
       </c>
@@ -4356,7 +4364,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
         <v>290</v>
       </c>
@@ -4367,7 +4375,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
         <v>180</v>
       </c>
@@ -4378,7 +4386,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B198" t="s">
         <v>181</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>291</v>
       </c>
@@ -4400,7 +4408,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
         <v>292</v>
       </c>
@@ -4411,7 +4419,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>182</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B202" t="s">
         <v>293</v>
       </c>
@@ -4433,7 +4441,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
         <v>294</v>
       </c>
@@ -4444,7 +4452,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
         <v>295</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
         <v>296</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B206" t="s">
         <v>184</v>
       </c>
@@ -4477,7 +4485,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B207" t="s">
         <v>185</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
         <v>186</v>
       </c>
@@ -4499,7 +4507,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
         <v>187</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
         <v>188</v>
       </c>
@@ -4521,7 +4529,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
         <v>189</v>
       </c>
@@ -4532,7 +4540,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B212" t="s">
         <v>190</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
         <v>297</v>
       </c>
@@ -4559,10 +4567,10 @@
         <v>191</v>
       </c>
       <c r="C214" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D214" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.45">
@@ -4570,10 +4578,10 @@
         <v>192</v>
       </c>
       <c r="C215" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D215" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.45">
@@ -4581,10 +4589,10 @@
         <v>193</v>
       </c>
       <c r="C216" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.45">
@@ -4595,7 +4603,7 @@
         <v>355</v>
       </c>
       <c r="D217" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.45">
@@ -4603,13 +4611,13 @@
         <v>298</v>
       </c>
       <c r="C218" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D218" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
         <v>299</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>355</v>
       </c>
       <c r="D220" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.45">
@@ -4636,13 +4644,13 @@
         <v>201</v>
       </c>
       <c r="C221" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D221" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B222" t="s">
         <v>300</v>
       </c>
@@ -4653,7 +4661,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B223" t="s">
         <v>202</v>
       </c>
@@ -4669,10 +4677,10 @@
         <v>301</v>
       </c>
       <c r="C224" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D224" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.45">
@@ -4683,7 +4691,7 @@
         <v>355</v>
       </c>
       <c r="D225" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.45">
@@ -4691,10 +4699,10 @@
         <v>302</v>
       </c>
       <c r="C226" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D226" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.45">
@@ -4705,10 +4713,10 @@
         <v>355</v>
       </c>
       <c r="D227" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
         <v>205</v>
       </c>
@@ -4724,10 +4732,10 @@
         <v>206</v>
       </c>
       <c r="C229" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D229" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.45">
@@ -4735,10 +4743,10 @@
         <v>207</v>
       </c>
       <c r="C230" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D230" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.45">
@@ -4746,10 +4754,10 @@
         <v>208</v>
       </c>
       <c r="C231" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D231" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.45">
@@ -4757,10 +4765,10 @@
         <v>209</v>
       </c>
       <c r="C232" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D232" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.45">
@@ -4768,10 +4776,10 @@
         <v>210</v>
       </c>
       <c r="C233" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D233" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.45">
@@ -4782,7 +4790,7 @@
         <v>355</v>
       </c>
       <c r="D234" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.45">
@@ -4790,13 +4798,13 @@
         <v>212</v>
       </c>
       <c r="C235" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D235" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
         <v>213</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B237" t="s">
         <v>303</v>
       </c>
@@ -4818,7 +4826,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
         <v>214</v>
       </c>
@@ -4829,7 +4837,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B239" t="s">
         <v>304</v>
       </c>
@@ -4840,7 +4848,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B240" t="s">
         <v>215</v>
       </c>
@@ -4851,7 +4859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B241" t="s">
         <v>305</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B242" t="s">
         <v>216</v>
       </c>
@@ -4873,7 +4881,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B243" t="s">
         <v>306</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B244" t="s">
         <v>307</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B245" t="s">
         <v>308</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B246" t="s">
         <v>309</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B247" t="s">
         <v>310</v>
       </c>
@@ -4928,7 +4936,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B248" t="s">
         <v>311</v>
       </c>
@@ -4939,7 +4947,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B249" t="s">
         <v>312</v>
       </c>
@@ -4950,7 +4958,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B250" t="s">
         <v>313</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B251" t="s">
         <v>217</v>
       </c>
@@ -4972,7 +4980,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B252" t="s">
         <v>218</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B253" t="s">
         <v>219</v>
       </c>
@@ -4994,7 +5002,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B254" t="s">
         <v>314</v>
       </c>
@@ -5005,7 +5013,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B255" t="s">
         <v>315</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B256" t="s">
         <v>316</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
         <v>317</v>
       </c>
@@ -5038,7 +5046,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B258" t="s">
         <v>220</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B259" t="s">
         <v>318</v>
       </c>
@@ -5060,7 +5068,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B260" t="s">
         <v>221</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B261" t="s">
         <v>319</v>
       </c>
@@ -5082,7 +5090,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B262" t="s">
         <v>222</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B263" t="s">
         <v>223</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B264" t="s">
         <v>224</v>
       </c>
@@ -5115,7 +5123,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B265" t="s">
         <v>320</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B266" t="s">
         <v>321</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
         <v>322</v>
       </c>
@@ -5148,7 +5156,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
         <v>228</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B269" t="s">
         <v>323</v>
       </c>
@@ -5170,7 +5178,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B270" t="s">
         <v>324</v>
       </c>
@@ -5181,7 +5189,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B271" t="s">
         <v>229</v>
       </c>
@@ -5192,12 +5200,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B273" t="s">
         <v>112</v>
       </c>
@@ -5208,7 +5216,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B274" t="s">
         <v>227</v>
       </c>
@@ -5219,7 +5227,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B275" t="s">
         <v>326</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B276" t="s">
         <v>327</v>
       </c>
@@ -5241,12 +5249,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B278" t="s">
         <v>148</v>
       </c>
@@ -5254,12 +5262,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B280" t="s">
         <v>45</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B281" t="s">
         <v>46</v>
       </c>
@@ -5281,7 +5289,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B282" t="s">
         <v>47</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B283" t="s">
         <v>48</v>
       </c>
@@ -5303,7 +5311,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B284" t="s">
         <v>49</v>
       </c>
@@ -5314,7 +5322,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B285" t="s">
         <v>50</v>
       </c>
@@ -5325,7 +5333,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B286" t="s">
         <v>52</v>
       </c>
@@ -5336,7 +5344,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B287" t="s">
         <v>53</v>
       </c>
@@ -5347,7 +5355,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B288" t="s">
         <v>54</v>
       </c>
@@ -5358,7 +5366,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B289" t="s">
         <v>55</v>
       </c>
@@ -5369,7 +5377,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B290" t="s">
         <v>56</v>
       </c>
@@ -5380,7 +5388,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B291" t="s">
         <v>57</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B292" t="s">
         <v>65</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B293" t="s">
         <v>66</v>
       </c>
@@ -5413,7 +5421,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B294" t="s">
         <v>67</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B295" t="s">
         <v>68</v>
       </c>
@@ -5435,7 +5443,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B296" t="s">
         <v>69</v>
       </c>
@@ -5446,7 +5454,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B297" t="s">
         <v>70</v>
       </c>
@@ -5457,7 +5465,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B298" t="s">
         <v>72</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B299" t="s">
         <v>73</v>
       </c>
@@ -5479,7 +5487,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B300" t="s">
         <v>74</v>
       </c>
@@ -5490,7 +5498,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B301" t="s">
         <v>75</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B302" t="s">
         <v>76</v>
       </c>
@@ -5512,7 +5520,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B303" t="s">
         <v>77</v>
       </c>
@@ -5523,12 +5531,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B305" t="s">
         <v>60</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B306" t="s">
         <v>61</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B307" t="s">
         <v>331</v>
       </c>
@@ -5552,7 +5560,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B308" t="s">
         <v>332</v>
       </c>
@@ -5560,7 +5568,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B309" t="s">
         <v>333</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B310" t="s">
         <v>334</v>
       </c>
@@ -5576,7 +5584,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B311" t="s">
         <v>169</v>
       </c>
@@ -5584,7 +5592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B312" t="s">
         <v>170</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B313" t="s">
         <v>225</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B314" t="s">
         <v>226</v>
       </c>
@@ -5608,12 +5616,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B316" t="s">
         <v>82</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
         <v>83</v>
       </c>
@@ -5629,7 +5637,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B318" t="s">
         <v>84</v>
       </c>
@@ -5637,7 +5645,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B319" t="s">
         <v>85</v>
       </c>
@@ -5645,7 +5653,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B320" t="s">
         <v>86</v>
       </c>
@@ -5653,7 +5661,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
         <v>87</v>
       </c>
@@ -5661,7 +5669,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
         <v>88</v>
       </c>
@@ -5669,7 +5677,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
         <v>336</v>
       </c>
@@ -5677,7 +5685,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
         <v>89</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
         <v>90</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
         <v>92</v>
       </c>
@@ -5701,7 +5709,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
         <v>93</v>
       </c>
@@ -5709,7 +5717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
         <v>94</v>
       </c>
@@ -5717,7 +5725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
         <v>337</v>
       </c>
@@ -5725,7 +5733,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
         <v>196</v>
       </c>
@@ -5733,7 +5741,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
         <v>197</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
         <v>198</v>
       </c>
@@ -5749,7 +5757,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
         <v>199</v>
       </c>
@@ -5757,7 +5765,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B334" t="s">
         <v>200</v>
       </c>
@@ -5765,7 +5773,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
         <v>338</v>
       </c>
@@ -5773,7 +5781,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
         <v>339</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B337" t="s">
         <v>340</v>
       </c>
@@ -5789,12 +5797,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B339" t="s">
         <v>342</v>
       </c>
@@ -5802,7 +5810,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
         <v>120</v>
       </c>
@@ -5810,17 +5818,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B343" t="s">
         <v>345</v>
       </c>
@@ -5828,12 +5836,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B345" t="s">
         <v>347</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B346" t="s">
         <v>348</v>
       </c>
@@ -5849,7 +5857,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B347" t="s">
         <v>349</v>
       </c>
@@ -5857,12 +5865,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B349" t="s">
         <v>37</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B350" t="s">
         <v>129</v>
       </c>
@@ -5878,7 +5886,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
         <v>149</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
         <v>150</v>
       </c>
@@ -5894,7 +5902,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
         <v>151</v>
       </c>
@@ -5902,7 +5910,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B354" t="s">
         <v>183</v>
       </c>
@@ -5910,13 +5918,19 @@
         <v>419</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}"/>
+  <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="文字列"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A7B4ED-2ED8-475A-8ECB-FDB0DD337026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513FF9E1-C65A-4DF5-B353-78EE1D4EC482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1788" yWindow="8208" windowWidth="24684" windowHeight="16032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="437">
   <si>
     <t>scheme.repl</t>
   </si>
@@ -1363,6 +1363,14 @@
   </si>
   <si>
     <t>文字列</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>rational</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>vector</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2320,7 +2328,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C216" sqref="C216"/>
+      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3305,7 +3313,7 @@
         <v>354</v>
       </c>
       <c r="D99" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
     </row>
     <row r="100" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
@@ -3503,7 +3511,7 @@
         <v>354</v>
       </c>
       <c r="D117" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
@@ -3511,7 +3519,7 @@
         <v>260</v>
       </c>
       <c r="C118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D118" t="s">
         <v>355</v>
@@ -3533,7 +3541,7 @@
         <v>124</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D120" t="s">
         <v>432</v>
@@ -3869,7 +3877,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>143</v>
       </c>
@@ -3880,15 +3888,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>144</v>
       </c>
       <c r="C152" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D152" t="s">
-        <v>355</v>
+        <v>436</v>
       </c>
     </row>
     <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
@@ -3979,7 +3987,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>152</v>
       </c>
@@ -3990,12 +3998,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>153</v>
       </c>
       <c r="C162" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D162" t="s">
         <v>430</v>
@@ -4152,7 +4160,7 @@
         <v>354</v>
       </c>
       <c r="D176" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
     </row>
     <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
@@ -4534,7 +4542,7 @@
         <v>189</v>
       </c>
       <c r="C211" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D211" t="s">
         <v>355</v>
@@ -4545,7 +4553,7 @@
         <v>190</v>
       </c>
       <c r="C212" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D212" t="s">
         <v>355</v>
@@ -4559,10 +4567,10 @@
         <v>354</v>
       </c>
       <c r="D213" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B214" t="s">
         <v>191</v>
       </c>
@@ -4573,7 +4581,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
         <v>192</v>
       </c>
@@ -4584,7 +4592,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B216" t="s">
         <v>193</v>
       </c>
@@ -4595,7 +4603,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
         <v>194</v>
       </c>
@@ -4606,7 +4614,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B218" t="s">
         <v>298</v>
       </c>
@@ -4617,18 +4625,18 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
         <v>299</v>
       </c>
       <c r="C219" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B220" t="s">
         <v>195</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
         <v>201</v>
       </c>
@@ -4672,7 +4680,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
         <v>301</v>
       </c>
@@ -4683,7 +4691,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
         <v>203</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
         <v>302</v>
       </c>
@@ -4705,7 +4713,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
         <v>204</v>
       </c>
@@ -4727,7 +4735,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B229" t="s">
         <v>206</v>
       </c>
@@ -4738,7 +4746,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B230" t="s">
         <v>207</v>
       </c>
@@ -4749,7 +4757,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B231" t="s">
         <v>208</v>
       </c>
@@ -4760,7 +4768,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B232" t="s">
         <v>209</v>
       </c>
@@ -4771,7 +4779,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B233" t="s">
         <v>210</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
         <v>211</v>
       </c>
@@ -4793,7 +4801,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
         <v>212</v>
       </c>
@@ -4842,7 +4850,7 @@
         <v>304</v>
       </c>
       <c r="C239" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D239" t="s">
         <v>355</v>
@@ -4911,7 +4919,7 @@
         <v>354</v>
       </c>
       <c r="D245" t="s">
-        <v>355</v>
+        <v>432</v>
       </c>
     </row>
     <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
@@ -4941,7 +4949,7 @@
         <v>311</v>
       </c>
       <c r="C248" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D248" t="s">
         <v>355</v>
@@ -4952,7 +4960,7 @@
         <v>312</v>
       </c>
       <c r="C249" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D249" t="s">
         <v>355</v>
@@ -4980,40 +4988,40 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B252" t="s">
         <v>218</v>
       </c>
       <c r="C252" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D252" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="253" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B253" t="s">
         <v>219</v>
       </c>
       <c r="C253" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D253" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="254" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B254" t="s">
         <v>314</v>
       </c>
       <c r="C254" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D254" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="255" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B255" t="s">
         <v>315</v>
       </c>
@@ -5024,89 +5032,89 @@
         <v>430</v>
       </c>
     </row>
-    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B256" t="s">
         <v>316</v>
       </c>
       <c r="C256" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D256" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
         <v>317</v>
       </c>
       <c r="C257" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D257" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B258" t="s">
         <v>220</v>
       </c>
       <c r="C258" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B259" t="s">
         <v>318</v>
       </c>
       <c r="C259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D259" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B260" t="s">
         <v>221</v>
       </c>
       <c r="C260" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D260" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B261" t="s">
         <v>319</v>
       </c>
       <c r="C261" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D261" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B262" t="s">
         <v>222</v>
       </c>
       <c r="C262" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D262" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B263" t="s">
         <v>223</v>
       </c>
       <c r="C263" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D263" t="s">
         <v>430</v>
@@ -5925,9 +5933,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="×"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="文字列"/>
+        <filter val="vector"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513FF9E1-C65A-4DF5-B353-78EE1D4EC482}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676484B-FFA4-4EC8-AB27-16E3E4231AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="8208" windowWidth="24684" windowHeight="16032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5208" yWindow="1440" windowWidth="24936" windowHeight="18072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gauche" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="437">
   <si>
     <t>scheme.repl</t>
   </si>
@@ -2328,7 +2328,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
+      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2799,12 +2799,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D53" t="s">
         <v>422</v>
@@ -2964,7 +2964,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>245</v>
       </c>
@@ -3074,12 +3074,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
         <v>423</v>
@@ -3151,34 +3151,34 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D85" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D86" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D87" t="s">
         <v>422</v>
@@ -3228,7 +3228,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>249</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>106</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>107</v>
       </c>
@@ -3349,23 +3349,23 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>252</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D103" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>116</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D104" t="s">
         <v>423</v>
@@ -3580,12 +3580,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>265</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D124" t="s">
         <v>424</v>
@@ -3613,7 +3613,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>266</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>267</v>
       </c>
@@ -3701,23 +3701,23 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>272</v>
       </c>
       <c r="C135" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D135" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>131</v>
       </c>
       <c r="C136" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D136" t="s">
         <v>422</v>
@@ -3888,7 +3888,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>144</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>153</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>162</v>
       </c>
@@ -4174,45 +4174,45 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>281</v>
       </c>
       <c r="C178" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D178" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>282</v>
       </c>
       <c r="C179" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D179" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>283</v>
       </c>
       <c r="C180" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D180" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>284</v>
       </c>
       <c r="C181" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D181" t="s">
         <v>422</v>
@@ -4229,7 +4229,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>285</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>172</v>
       </c>
@@ -4273,18 +4273,18 @@
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>174</v>
       </c>
       <c r="C187" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D187" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>287</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>288</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>291</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="200" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
         <v>292</v>
       </c>
@@ -4427,12 +4427,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>182</v>
       </c>
       <c r="C201" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D201" t="s">
         <v>423</v>
@@ -4449,7 +4449,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
         <v>294</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="204" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
         <v>295</v>
       </c>
@@ -4471,12 +4471,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
         <v>296</v>
       </c>
       <c r="C205" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D205" t="s">
         <v>423</v>
@@ -4625,7 +4625,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
         <v>299</v>
       </c>
@@ -4867,12 +4867,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B241" t="s">
         <v>305</v>
       </c>
       <c r="C241" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D241" t="s">
         <v>422</v>
@@ -4922,12 +4922,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B246" t="s">
         <v>309</v>
       </c>
       <c r="C246" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D246" t="s">
         <v>423</v>
@@ -4988,7 +4988,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B252" t="s">
         <v>218</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B253" t="s">
         <v>219</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B254" t="s">
         <v>314</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B255" t="s">
         <v>315</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B256" t="s">
         <v>316</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
         <v>317</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B258" t="s">
         <v>220</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B259" t="s">
         <v>318</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B260" t="s">
         <v>221</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B261" t="s">
         <v>319</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B262" t="s">
         <v>222</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B263" t="s">
         <v>223</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
         <v>322</v>
       </c>
@@ -5164,18 +5164,18 @@
         <v>425</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
         <v>228</v>
       </c>
       <c r="C268" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D268" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B269" t="s">
         <v>323</v>
       </c>
@@ -5186,12 +5186,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B270" t="s">
         <v>324</v>
       </c>
       <c r="C270" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D270" t="s">
         <v>425</v>
@@ -5548,6 +5548,9 @@
       <c r="B305" t="s">
         <v>60</v>
       </c>
+      <c r="C305" t="s">
+        <v>355</v>
+      </c>
       <c r="D305" t="s">
         <v>355</v>
       </c>
@@ -5556,6 +5559,9 @@
       <c r="B306" t="s">
         <v>61</v>
       </c>
+      <c r="C306" t="s">
+        <v>355</v>
+      </c>
       <c r="D306" t="s">
         <v>355</v>
       </c>
@@ -5564,6 +5570,9 @@
       <c r="B307" t="s">
         <v>331</v>
       </c>
+      <c r="C307" t="s">
+        <v>355</v>
+      </c>
       <c r="D307" t="s">
         <v>355</v>
       </c>
@@ -5572,6 +5581,9 @@
       <c r="B308" t="s">
         <v>332</v>
       </c>
+      <c r="C308" t="s">
+        <v>355</v>
+      </c>
       <c r="D308" t="s">
         <v>355</v>
       </c>
@@ -5580,6 +5592,9 @@
       <c r="B309" t="s">
         <v>333</v>
       </c>
+      <c r="C309" t="s">
+        <v>355</v>
+      </c>
       <c r="D309" t="s">
         <v>355</v>
       </c>
@@ -5588,6 +5603,9 @@
       <c r="B310" t="s">
         <v>334</v>
       </c>
+      <c r="C310" t="s">
+        <v>355</v>
+      </c>
       <c r="D310" t="s">
         <v>355</v>
       </c>
@@ -5596,6 +5614,9 @@
       <c r="B311" t="s">
         <v>169</v>
       </c>
+      <c r="C311" t="s">
+        <v>355</v>
+      </c>
       <c r="D311" t="s">
         <v>355</v>
       </c>
@@ -5604,6 +5625,9 @@
       <c r="B312" t="s">
         <v>170</v>
       </c>
+      <c r="C312" t="s">
+        <v>355</v>
+      </c>
       <c r="D312" t="s">
         <v>355</v>
       </c>
@@ -5612,16 +5636,22 @@
       <c r="B313" t="s">
         <v>225</v>
       </c>
+      <c r="C313" t="s">
+        <v>354</v>
+      </c>
       <c r="D313" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B314" t="s">
         <v>226</v>
       </c>
+      <c r="C314" t="s">
+        <v>354</v>
+      </c>
       <c r="D314" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
@@ -5933,14 +5963,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="×"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="vector"/>
+        <filter val="出力"/>
+        <filter val="入出力"/>
+        <filter val="入力"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3676484B-FFA4-4EC8-AB27-16E3E4231AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A1A31-A0C6-4BA9-A3FB-EDB8508C7A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5208" yWindow="1440" windowWidth="24936" windowHeight="18072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2327,8 +2327,8 @@
   <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3618,7 +3618,7 @@
         <v>266</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D127" t="s">
         <v>426</v>
@@ -3629,7 +3629,7 @@
         <v>267</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
         <v>426</v>
@@ -4234,7 +4234,7 @@
         <v>285</v>
       </c>
       <c r="C183" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D183" t="s">
         <v>422</v>
@@ -4245,7 +4245,7 @@
         <v>172</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D184" t="s">
         <v>422</v>
@@ -4289,7 +4289,7 @@
         <v>287</v>
       </c>
       <c r="C188" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D188" t="s">
         <v>423</v>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A1A31-A0C6-4BA9-A3FB-EDB8508C7A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DB97E-AACF-4D69-AC24-536B4A940D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5208" yWindow="1440" windowWidth="24936" windowHeight="18072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2327,8 +2327,8 @@
   <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C92" sqref="C92"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2969,7 +2969,7 @@
         <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
         <v>422</v>
@@ -3233,7 +3233,7 @@
         <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
         <v>422</v>
@@ -3244,7 +3244,7 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D93" t="s">
         <v>422</v>
@@ -3255,7 +3255,7 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D94" t="s">
         <v>422</v>
@@ -4212,7 +4212,7 @@
         <v>284</v>
       </c>
       <c r="C181" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D181" t="s">
         <v>422</v>
@@ -4410,7 +4410,7 @@
         <v>291</v>
       </c>
       <c r="C199" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D199" t="s">
         <v>423</v>
@@ -4421,7 +4421,7 @@
         <v>292</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D200" t="s">
         <v>423</v>
@@ -4454,7 +4454,7 @@
         <v>294</v>
       </c>
       <c r="C203" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D203" t="s">
         <v>423</v>
@@ -4465,7 +4465,7 @@
         <v>295</v>
       </c>
       <c r="C204" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D204" t="s">
         <v>423</v>
@@ -5158,7 +5158,7 @@
         <v>322</v>
       </c>
       <c r="C267" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D267" t="s">
         <v>425</v>
@@ -5180,7 +5180,7 @@
         <v>323</v>
       </c>
       <c r="C269" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D269" t="s">
         <v>425</v>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DB97E-AACF-4D69-AC24-536B4A940D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800A53B4-A443-4776-8CC9-93034B958023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5208" yWindow="1440" windowWidth="24936" windowHeight="18072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="438">
   <si>
     <t>scheme.repl</t>
   </si>
@@ -1371,6 +1371,10 @@
   </si>
   <si>
     <t>vector</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>▲</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -2328,7 +2332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
+      <selection pane="bottomLeft" activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2357,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2799,7 +2803,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>235</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>238</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>245</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>91</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>102</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>247</v>
       </c>
@@ -3184,12 +3188,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>103</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D88" t="s">
         <v>355</v>
@@ -3228,7 +3232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>249</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>106</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>107</v>
       </c>
@@ -3272,12 +3276,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D96" t="s">
         <v>428</v>
@@ -3294,7 +3298,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B98" t="s">
         <v>251</v>
       </c>
@@ -3316,12 +3320,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="100" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D100" t="s">
         <v>355</v>
@@ -3349,7 +3353,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>252</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>116</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>123</v>
       </c>
       <c r="C117" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D117" t="s">
         <v>432</v>
@@ -3552,7 +3556,7 @@
         <v>262</v>
       </c>
       <c r="C121" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D121" t="s">
         <v>432</v>
@@ -3563,7 +3567,7 @@
         <v>263</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D122" t="s">
         <v>432</v>
@@ -3574,13 +3578,13 @@
         <v>264</v>
       </c>
       <c r="C123" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D123" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>265</v>
       </c>
@@ -3602,18 +3606,18 @@
         <v>355</v>
       </c>
     </row>
-    <row r="126" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D126" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>266</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>267</v>
       </c>
@@ -3635,12 +3639,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="129" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B129" t="s">
         <v>268</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D129" t="s">
         <v>355</v>
@@ -3668,12 +3672,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B132" t="s">
         <v>270</v>
       </c>
       <c r="C132" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D132" t="s">
         <v>355</v>
@@ -3701,7 +3705,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>272</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>131</v>
       </c>
@@ -3723,12 +3727,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="137" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B137" t="s">
         <v>132</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D137" t="s">
         <v>355</v>
@@ -3756,12 +3760,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B140" t="s">
         <v>135</v>
       </c>
       <c r="C140" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D140" t="s">
         <v>355</v>
@@ -3800,7 +3804,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B144" t="s">
         <v>273</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B145" t="s">
         <v>139</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="148" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B148" t="s">
         <v>275</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="149" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B149" t="s">
         <v>141</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="153" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B153" t="s">
         <v>276</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="154" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B154" t="s">
         <v>145</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="155" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B155" t="s">
         <v>277</v>
       </c>
@@ -3932,7 +3936,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="156" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B156" t="s">
         <v>146</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>147</v>
       </c>
       <c r="C157" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D157" t="s">
         <v>355</v>
@@ -3965,7 +3969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="159" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B159" t="s">
         <v>279</v>
       </c>
@@ -4031,7 +4035,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="165" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B165" t="s">
         <v>156</v>
       </c>
@@ -4053,7 +4057,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B167" t="s">
         <v>158</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>162</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>165</v>
       </c>
       <c r="C174" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D174" t="s">
         <v>355</v>
@@ -4174,7 +4178,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>281</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>282</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>283</v>
       </c>
@@ -4207,7 +4211,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>284</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>285</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>172</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>174</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>287</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>288</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>180</v>
       </c>
       <c r="C197" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D197" t="s">
         <v>432</v>
@@ -4399,13 +4403,13 @@
         <v>181</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D198" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>291</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
         <v>292</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>182</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
         <v>294</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
         <v>295</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
         <v>296</v>
       </c>
@@ -4564,7 +4568,7 @@
         <v>297</v>
       </c>
       <c r="C213" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D213" t="s">
         <v>432</v>
@@ -4663,7 +4667,7 @@
         <v>300</v>
       </c>
       <c r="C222" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D222" t="s">
         <v>420</v>
@@ -4674,7 +4678,7 @@
         <v>202</v>
       </c>
       <c r="C223" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D223" t="s">
         <v>420</v>
@@ -4729,7 +4733,7 @@
         <v>205</v>
       </c>
       <c r="C228" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D228" t="s">
         <v>420</v>
@@ -4812,23 +4816,23 @@
         <v>433</v>
       </c>
     </row>
-    <row r="236" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B236" t="s">
         <v>213</v>
       </c>
       <c r="C236" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="237" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B237" t="s">
         <v>303</v>
       </c>
       <c r="C237" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
         <v>355</v>
@@ -4867,7 +4871,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B241" t="s">
         <v>305</v>
       </c>
@@ -4916,13 +4920,13 @@
         <v>308</v>
       </c>
       <c r="C245" t="s">
-        <v>354</v>
+        <v>437</v>
       </c>
       <c r="D245" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B246" t="s">
         <v>309</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>313</v>
       </c>
       <c r="C250" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D250" t="s">
         <v>355</v>
@@ -5021,7 +5025,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="255" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B255" t="s">
         <v>315</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
         <v>322</v>
       </c>
@@ -5164,7 +5168,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
         <v>228</v>
       </c>
@@ -5175,7 +5179,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B269" t="s">
         <v>323</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B270" t="s">
         <v>324</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B275" t="s">
         <v>326</v>
       </c>
@@ -5246,7 +5250,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B276" t="s">
         <v>327</v>
       </c>
@@ -5963,11 +5967,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="×"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
-      <filters>
-        <filter val="出力"/>
-        <filter val="入出力"/>
-        <filter val="入力"/>
+      <filters blank="1">
+        <filter val="〇"/>
+        <filter val="vector"/>
+        <filter val="レコード"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/api.xlsx
+++ b/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\cslisp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800A53B4-A443-4776-8CC9-93034B958023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B24B3B6-797C-4045-AC21-82CBD183500B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5208" yWindow="1440" windowWidth="24936" windowHeight="18072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8532" yWindow="2496" windowWidth="33096" windowHeight="21324" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gauche" sheetId="1" r:id="rId1"/>
@@ -2327,12 +2327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D237" sqref="D237"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2356,7 +2355,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2369,12 +2368,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -2382,12 +2381,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2410,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -2467,7 +2466,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -2475,7 +2474,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -2483,17 +2482,17 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +2500,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -2509,7 +2508,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -2533,12 +2532,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>110</v>
       </c>
@@ -2546,7 +2545,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>231</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>126</v>
       </c>
@@ -2562,7 +2561,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>232</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>233</v>
       </c>
@@ -2578,12 +2577,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="34" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="35" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="37" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>28</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="38" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="39" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -2660,7 +2659,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -2671,7 +2670,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="41" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>33</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>34</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>358</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>35</v>
       </c>
@@ -2726,7 +2725,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>36</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
         <v>39</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>40</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>41</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" t="s">
         <v>43</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>235</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>236</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" t="s">
         <v>44</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" t="s">
         <v>237</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" t="s">
         <v>239</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" t="s">
         <v>240</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>241</v>
       </c>
@@ -2891,7 +2890,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>417</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>242</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>243</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>244</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>51</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
         <v>58</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
         <v>59</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>245</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>62</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>246</v>
       </c>
@@ -3001,7 +3000,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>63</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>64</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>78</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
         <v>79</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>80</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
         <v>81</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B78" t="s">
         <v>91</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
         <v>95</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>96</v>
       </c>
@@ -3111,7 +3110,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>97</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>98</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>99</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>100</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B85" t="s">
         <v>101</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B86" t="s">
         <v>102</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>247</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B89" t="s">
         <v>104</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B90" t="s">
         <v>248</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>105</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>249</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B93" t="s">
         <v>106</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B94" t="s">
         <v>107</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>108</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="97" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
         <v>109</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="99" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B99" t="s">
         <v>111</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="101" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B101" t="s">
         <v>114</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102" t="s">
         <v>115</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="103" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103" t="s">
         <v>252</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104" t="s">
         <v>116</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="105" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105" t="s">
         <v>117</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="106" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106" t="s">
         <v>118</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="107" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107" t="s">
         <v>119</v>
       </c>
@@ -3408,7 +3407,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108" t="s">
         <v>253</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B109" t="s">
         <v>254</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B110" t="s">
         <v>255</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="111" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B111" t="s">
         <v>256</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112" t="s">
         <v>121</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="113" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B113" t="s">
         <v>257</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="114" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>258</v>
       </c>
@@ -3485,7 +3484,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="115" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>259</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="116" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>122</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="117" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B117" t="s">
         <v>123</v>
       </c>
@@ -3518,7 +3517,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="118" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B118" t="s">
         <v>260</v>
       </c>
@@ -3529,7 +3528,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>261</v>
       </c>
@@ -3540,7 +3539,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="120" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>124</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="121" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>262</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B122" t="s">
         <v>263</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="123" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B123" t="s">
         <v>264</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>265</v>
       </c>
@@ -3595,7 +3594,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>125</v>
       </c>
@@ -3617,7 +3616,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>266</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="128" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B128" t="s">
         <v>267</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="130" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
         <v>128</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="131" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>269</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="133" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B133" t="s">
         <v>271</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="134" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B134" t="s">
         <v>130</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="135" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B135" t="s">
         <v>272</v>
       </c>
@@ -3716,7 +3715,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B136" t="s">
         <v>131</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="138" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B138" t="s">
         <v>133</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="139" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B139" t="s">
         <v>134</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="141" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B141" t="s">
         <v>136</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="142" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B142" t="s">
         <v>137</v>
       </c>
@@ -3793,7 +3792,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="143" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B143" t="s">
         <v>138</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="146" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B146" t="s">
         <v>274</v>
       </c>
@@ -3837,7 +3836,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B147" t="s">
         <v>140</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="150" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B150" t="s">
         <v>142</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="151" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B151" t="s">
         <v>143</v>
       </c>
@@ -3892,7 +3891,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="152" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B152" t="s">
         <v>144</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="157" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B157" t="s">
         <v>147</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B158" t="s">
         <v>278</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B160" t="s">
         <v>280</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B161" t="s">
         <v>152</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B162" t="s">
         <v>153</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B163" t="s">
         <v>154</v>
       </c>
@@ -4024,7 +4023,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B164" t="s">
         <v>155</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="166" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B166" t="s">
         <v>157</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="168" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B168" t="s">
         <v>159</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B169" t="s">
         <v>160</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="170" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B170" t="s">
         <v>161</v>
       </c>
@@ -4101,7 +4100,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B171" t="s">
         <v>162</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="172" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B172" t="s">
         <v>163</v>
       </c>
@@ -4123,7 +4122,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="173" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B173" t="s">
         <v>164</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B174" t="s">
         <v>165</v>
       </c>
@@ -4145,7 +4144,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B175" t="s">
         <v>166</v>
       </c>
@@ -4156,7 +4155,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B176" t="s">
         <v>167</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B177" t="s">
         <v>168</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B178" t="s">
         <v>281</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B179" t="s">
         <v>282</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B180" t="s">
         <v>283</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B181" t="s">
         <v>284</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="182" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B182" t="s">
         <v>171</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B183" t="s">
         <v>285</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B184" t="s">
         <v>172</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="185" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B185" t="s">
         <v>173</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="186" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B186" t="s">
         <v>286</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B187" t="s">
         <v>174</v>
       </c>
@@ -4288,7 +4287,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B188" t="s">
         <v>287</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B189" t="s">
         <v>288</v>
       </c>
@@ -4310,7 +4309,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B190" t="s">
         <v>175</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="191" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B191" t="s">
         <v>176</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B192" t="s">
         <v>177</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B193" t="s">
         <v>178</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B194" t="s">
         <v>179</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="195" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B195" t="s">
         <v>289</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="196" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B196" t="s">
         <v>290</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B197" t="s">
         <v>180</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="198" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B198" t="s">
         <v>181</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="199" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B199" t="s">
         <v>291</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="200" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B200" t="s">
         <v>292</v>
       </c>
@@ -4431,7 +4430,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B201" t="s">
         <v>182</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="202" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B202" t="s">
         <v>293</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B203" t="s">
         <v>294</v>
       </c>
@@ -4464,7 +4463,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="204" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B204" t="s">
         <v>295</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B205" t="s">
         <v>296</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="206" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B206" t="s">
         <v>184</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="207" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B207" t="s">
         <v>185</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="208" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B208" t="s">
         <v>186</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="209" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B209" t="s">
         <v>187</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="210" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B210" t="s">
         <v>188</v>
       </c>
@@ -4541,7 +4540,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="211" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B211" t="s">
         <v>189</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="212" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B212" t="s">
         <v>190</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="213" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B213" t="s">
         <v>297</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="214" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B214" t="s">
         <v>191</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="215" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B215" t="s">
         <v>192</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="216" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B216" t="s">
         <v>193</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="217" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B217" t="s">
         <v>194</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B218" t="s">
         <v>298</v>
       </c>
@@ -4629,7 +4628,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B219" t="s">
         <v>299</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="220" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B220" t="s">
         <v>195</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="221" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B221" t="s">
         <v>201</v>
       </c>
@@ -4662,7 +4661,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="222" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B222" t="s">
         <v>300</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B223" t="s">
         <v>202</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B224" t="s">
         <v>301</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="225" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B225" t="s">
         <v>203</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="226" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B226" t="s">
         <v>302</v>
       </c>
@@ -4717,7 +4716,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="227" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B227" t="s">
         <v>204</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="228" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B228" t="s">
         <v>205</v>
       </c>
@@ -4739,7 +4738,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="229" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B229" t="s">
         <v>206</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="230" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B230" t="s">
         <v>207</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="231" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B231" t="s">
         <v>208</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="232" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B232" t="s">
         <v>209</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="233" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B233" t="s">
         <v>210</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="234" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B234" t="s">
         <v>211</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B235" t="s">
         <v>212</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="238" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B238" t="s">
         <v>214</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="239" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B239" t="s">
         <v>304</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="240" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B240" t="s">
         <v>215</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="241" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B241" t="s">
         <v>305</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="242" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B242" t="s">
         <v>216</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="243" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B243" t="s">
         <v>306</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="244" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B244" t="s">
         <v>307</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="245" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B245" t="s">
         <v>308</v>
       </c>
@@ -4926,7 +4925,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="246" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B246" t="s">
         <v>309</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B247" t="s">
         <v>310</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="248" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B248" t="s">
         <v>311</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="249" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B249" t="s">
         <v>312</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="250" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B250" t="s">
         <v>313</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="251" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B251" t="s">
         <v>217</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="252" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B252" t="s">
         <v>218</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="253" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B253" t="s">
         <v>219</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="254" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B254" t="s">
         <v>314</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="256" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B256" t="s">
         <v>316</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B257" t="s">
         <v>317</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B258" t="s">
         <v>220</v>
       </c>
@@ -5069,7 +5068,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B259" t="s">
         <v>318</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B260" t="s">
         <v>221</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B261" t="s">
         <v>319</v>
       </c>
@@ -5102,7 +5101,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B262" t="s">
         <v>222</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B263" t="s">
         <v>223</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B264" t="s">
         <v>224</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B265" t="s">
         <v>320</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B266" t="s">
         <v>321</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B267" t="s">
         <v>322</v>
       </c>
@@ -5168,7 +5167,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B268" t="s">
         <v>228</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B269" t="s">
         <v>323</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B270" t="s">
         <v>324</v>
       </c>
@@ -5201,7 +5200,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B271" t="s">
         <v>229</v>
       </c>
@@ -5212,12 +5211,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B273" t="s">
         <v>112</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B274" t="s">
         <v>227</v>
       </c>
@@ -5261,12 +5260,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B278" t="s">
         <v>148</v>
       </c>
@@ -5274,12 +5273,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B280" t="s">
         <v>45</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B281" t="s">
         <v>46</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B282" t="s">
         <v>47</v>
       </c>
@@ -5312,7 +5311,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B283" t="s">
         <v>48</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B284" t="s">
         <v>49</v>
       </c>
@@ -5334,7 +5333,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B285" t="s">
         <v>50</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B286" t="s">
         <v>52</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B287" t="s">
         <v>53</v>
       </c>
@@ -5367,7 +5366,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B288" t="s">
         <v>54</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B289" t="s">
         <v>55</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B290" t="s">
         <v>56</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B291" t="s">
         <v>57</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B292" t="s">
         <v>65</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B293" t="s">
         <v>66</v>
       </c>
@@ -5433,7 +5432,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B294" t="s">
         <v>67</v>
       </c>
@@ -5444,7 +5443,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B295" t="s">
         <v>68</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B296" t="s">
         <v>69</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B297" t="s">
         <v>70</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B298" t="s">
         <v>72</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B299" t="s">
         <v>73</v>
       </c>
@@ -5499,7 +5498,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B300" t="s">
         <v>74</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B301" t="s">
         <v>75</v>
       </c>
@@ -5521,7 +5520,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B302" t="s">
         <v>76</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B303" t="s">
         <v>77</v>
       </c>
@@ -5543,12 +5542,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B305" t="s">
         <v>60</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B306" t="s">
         <v>61</v>
       </c>
@@ -5570,7 +5569,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B307" t="s">
         <v>331</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B308" t="s">
         <v>332</v>
       </c>
@@ -5592,7 +5591,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B309" t="s">
         <v>333</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B310" t="s">
         <v>334</v>
       </c>
@@ -5614,7 +5613,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B311" t="s">
         <v>169</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B312" t="s">
         <v>170</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B313" t="s">
         <v>225</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B314" t="s">
         <v>226</v>
       </c>
@@ -5658,12 +5657,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B316" t="s">
         <v>82</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
         <v>83</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B318" t="s">
         <v>84</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B319" t="s">
         <v>85</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B320" t="s">
         <v>86</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="321" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
         <v>87</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
         <v>88</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
         <v>336</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="324" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
         <v>89</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="325" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
         <v>90</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="326" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
         <v>92</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="327" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
         <v>93</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="328" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
         <v>94</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="329" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
         <v>337</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
         <v>196</v>
       </c>
@@ -5783,7 +5782,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="331" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
         <v>197</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="332" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
         <v>198</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="333" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
         <v>199</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B334" t="s">
         <v>200</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="335" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
         <v>338</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="336" spans="2:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
         <v>339</v>
       </c>
@@ -5831,7 +5830,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B337" t="s">
         <v>340</v>
       </c>
@@ -5839,12 +5838,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B339" t="s">
         <v>342</v>
       </c>
@@ -5852,7 +5851,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
         <v>120</v>
       </c>
@@ -5860,17 +5859,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B343" t="s">
         <v>345</v>
       </c>
@@ -5878,12 +5877,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B345" t="s">
         <v>347</v>
       </c>
@@ -5891,7 +5890,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B346" t="s">
         <v>348</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B347" t="s">
         <v>349</v>
       </c>
@@ -5907,12 +5906,12 @@
         <v>355</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B349" t="s">
         <v>37</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B350" t="s">
         <v>129</v>
       </c>
@@ -5928,7 +5927,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
         <v>149</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
         <v>150</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
         <v>151</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B354" t="s">
         <v>183</v>
       </c>
@@ -5960,26 +5959,13 @@
         <v>419</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="×"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="〇"/>
-        <filter val="vector"/>
-        <filter val="レコード"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D355" xr:uid="{BA8844C1-DFB8-4618-8752-FDE5EB650BF6}"/>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
